--- a/tests/template-excel/sample-string.xlsx
+++ b/tests/template-excel/sample-string.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\kaxiluo\php-excel-template\tests\example-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\kaxiluo\php-excel-template\tests\template-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D04D74-42D2-4E1D-9E96-30FD0449AD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D385D69-3463-4A3C-9EC1-D6B51A6D1CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4170" yWindow="1890" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,29 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>nice day</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{B1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{C1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{D1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi {A2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{A1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{B1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{C1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{D1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hi {A2}</t>
+    <t>hello {C2} -</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,28 +380,34 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">

--- a/tests/template-excel/sample-string.xlsx
+++ b/tests/template-excel/sample-string.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\kaxiluo\php-excel-template\tests\template-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D385D69-3463-4A3C-9EC1-D6B51A6D1CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F3B20C-2BB4-4585-BE2E-25FDBD106D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="1890" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14088" yWindow="4284" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,23 +35,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{C1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{D1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hi {A2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{A1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hello {C2} -</t>
+    <t>{unmatchedType}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{undefined}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i am {A2}!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{x} love {y}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,42 +377,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
